--- a/Project/Data/United Kingdom/Cleaned Dataset/Solar Generation in UK from 2011 to 2021.xlsx
+++ b/Project/Data/United Kingdom/Cleaned Dataset/Solar Generation in UK from 2011 to 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hewit\Desktop\COS30045\Assignment\Project\Data\United Kingdom\Cleaned Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C63A207-B080-419B-8C53-1B831197C757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5754E6F-40BA-48B6-8505-7FEB0506F25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9024" xr2:uid="{577BE8D7-7CB9-41C9-AD76-BC6ED77E2435}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{577BE8D7-7CB9-41C9-AD76-BC6ED77E2435}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Solar Photovoltaics Generation (GWh)</t>
+    <t>Solar Photovoltaics Generation (MWh)</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
